--- a/format.xlsx
+++ b/format.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ecert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ecert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993E9CF0-8FA6-48CA-838A-725DF158E9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C053CF-9A6E-46E3-B662-766C36C52CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,10 +85,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,36 +372,36 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
